--- a/Lab3/Lab3_1.xlsx
+++ b/Lab3/Lab3_1.xlsx
@@ -344,410 +344,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.16250272175849947</v>
+        <v>9.750163305509968</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1344243458824556</v>
+        <v>8.065460752947335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.18034982519594467</v>
+        <v>10.820989511756679</v>
       </c>
       <c r="B2" t="n">
-        <v>0.12103470386091252</v>
+        <v>7.26208223165475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2122258927147136</v>
+        <v>12.733553562882815</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12208300939440184</v>
+        <v>7.324980563664109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.26058944689622454</v>
+        <v>16.706193020020184</v>
       </c>
       <c r="B4" t="n">
-        <v>0.14183941850819043</v>
+        <v>8.369381170415135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3020297041545786</v>
+        <v>17.7302635529892</v>
       </c>
       <c r="B5" t="n">
-        <v>0.15568036937184457</v>
+        <v>10.605261849707151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.33741392380811147</v>
+        <v>19.788698427756064</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1650365855403871</v>
+        <v>9.756698989161162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3903600039095636</v>
+        <v>25.516496973789543</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1975020879968832</v>
+        <v>12.680373448785481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.42244930522632085</v>
+        <v>26.249313336998377</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2059977772297175</v>
+        <v>14.655633689304054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4886395459382833</v>
+        <v>28.610465079440775</v>
       </c>
       <c r="B9" t="n">
-        <v>0.24595629469017408</v>
+        <v>14.328736050521883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5049624617837515</v>
+        <v>33.62767193735186</v>
       </c>
       <c r="B10" t="n">
-        <v>0.24118937710416882</v>
+        <v>17.534015907108667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5627334469727335</v>
+        <v>33.97958574601075</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2673072847629118</v>
+        <v>16.6900584819242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5854826567400915</v>
+        <v>36.89498130258356</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26517047845611497</v>
+        <v>18.13477420844143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6428713390989463</v>
+        <v>40.92792203368833</v>
       </c>
       <c r="B13" t="n">
-        <v>0.29690646058922776</v>
+        <v>19.120363705410963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.6880473638830389</v>
+        <v>40.9634164588943</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3210206780105778</v>
+        <v>20.59888547361389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7129791555714198</v>
+        <v>44.45062498744969</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31690422161875303</v>
+        <v>21.40494760244112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7748202531000166</v>
+        <v>48.613206388774</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3519961206365295</v>
+        <v>22.36394900014748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8358726413735802</v>
+        <v>50.710506174667955</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3815538137354758</v>
+        <v>26.120454083989014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8460063650496539</v>
+        <v>51.11381304745052</v>
       </c>
       <c r="B18" t="n">
-        <v>0.36512818558826565</v>
+        <v>23.121660774011655</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8967501451026896</v>
+        <v>57.48272303820648</v>
       </c>
       <c r="B19" t="n">
-        <v>0.39716369400195245</v>
+        <v>28.38356243091263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9580061167050713</v>
+        <v>58.495014947725515</v>
       </c>
       <c r="B20" t="n">
-        <v>0.403776554833406</v>
+        <v>27.717157023459023</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9670460791468983</v>
+        <v>60.203214011106496</v>
       </c>
       <c r="B21" t="n">
-        <v>0.441073178877047</v>
+        <v>28.202759100586995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.0097667781267845</v>
+        <v>65.82210497165175</v>
       </c>
       <c r="B22" t="n">
-        <v>0.42747289720265125</v>
+        <v>32.06246536076973</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.0752975853049984</v>
+        <v>66.49648254150647</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4626447183043011</v>
+        <v>31.614346632263505</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.1153875826257382</v>
+        <v>69.33564625429602</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4768374746796582</v>
+        <v>33.129509052426926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.1683465394736092</v>
+        <v>73.17103145020636</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5081766231101651</v>
+        <v>35.58183562212088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.1891940761166857</v>
+        <v>75.62962592981384</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5103645313554384</v>
+        <v>35.28480925849556</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.2574786688459056</v>
+        <v>75.63661080739163</v>
       </c>
       <c r="B27" t="n">
-        <v>0.557952554593819</v>
+        <v>36.608828796213125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.2960924869078991</v>
+        <v>79.29198036865695</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5767598412769127</v>
+        <v>37.48100355087986</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.3229140397482888</v>
+        <v>82.00336692966621</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5735067451867781</v>
+        <v>39.04286867006623</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.3844547653113104</v>
+        <v>83.54963681344765</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6066521874796522</v>
+        <v>39.035304097124694</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.424408861276986</v>
+        <v>87.81744554186699</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6278720323002759</v>
+        <v>41.63762615774349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.485780804676817</v>
+        <v>89.29793469326899</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6620163309908229</v>
+        <v>41.7657770799795</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.5025661830614265</v>
+        <v>90.86033818291249</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6555976328716375</v>
+        <v>41.867373767530644</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.5336660802203192</v>
+        <v>93.595097473587</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6591439138747771</v>
+        <v>42.90743735999295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.6097629829313762</v>
+        <v>96.91650048119327</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7064894201374416</v>
+        <v>44.61363053769237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.6393579579225426</v>
+        <v>98.98126009310387</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7146247406285406</v>
+        <v>44.97467315339412</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.6694046584086906</v>
+        <v>101.36330044454232</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7230008243734235</v>
+        <v>45.953815204544085</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.7484896382557633</v>
+        <v>105.37615613494413</v>
       </c>
       <c r="B38" t="n">
-        <v>0.780522122317048</v>
+        <v>48.256964439154466</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.758743296475002</v>
+        <v>106.65650071074006</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7639364885888907</v>
+        <v>48.09615457702286</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.7988726290266066</v>
+        <v>107.5901683924233</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7816794686396642</v>
+        <v>47.519647200000165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.8868972693880866</v>
+        <v>114.49025817362467</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8424403054880498</v>
+        <v>52.964171692325266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.8910634841065366</v>
+        <v>115.33611942692838</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8278780773878684</v>
+        <v>51.18826722372711</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.9547609595045632</v>
+        <v>115.75682395458878</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8716983735488801</v>
+        <v>52.900256900449484</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.0240814172790533</v>
+        <v>121.52506172797072</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8854710975475406</v>
+        <v>56.08963025476541</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.0296112161573</v>
+        <v>122.22597551265689</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9174167658151655</v>
+        <v>53.99219880184678</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.100440222639011</v>
+        <v>123.82534885762027</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9375685771109004</v>
+        <v>56.83213371041025</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.155826229586853</v>
+        <v>130.15836909358168</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9447464501452765</v>
+        <v>60.314234865927816</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.170896213829164</v>
+        <v>130.49288760436465</v>
       </c>
       <c r="B48" t="n">
-        <v>0.985479001438075</v>
+        <v>59.33562001084887</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.225084270809126</v>
+        <v>131.79939662480814</v>
       </c>
       <c r="B49" t="n">
-        <v>0.995356509792602</v>
+        <v>59.2989478812425</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.2693909323122052</v>
+        <v>138.60247909083256</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9907290678425489</v>
+        <v>64.69104692666458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.2720388828909153</v>
+        <v>139.14499196336524</v>
       </c>
       <c r="B51" t="n">
-        <v>1.013048690018398</v>
+        <v>61.979723871697885</v>
       </c>
     </row>
     <row r="52">

--- a/Lab3/Lab3_1.xlsx
+++ b/Lab3/Lab3_1.xlsx
@@ -752,1034 +752,1034 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.338486095592292</v>
+        <v>139.5895395730709</v>
       </c>
       <c r="B52" t="n">
-        <v>1.0364260566328083</v>
+        <v>64.09079454375599</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.3725558553519916</v>
+        <v>146.39189937832293</v>
       </c>
       <c r="B53" t="n">
-        <v>1.0436781378812576</v>
+        <v>64.20918059212289</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.384490526685046</v>
+        <v>147.03423017196698</v>
       </c>
       <c r="B54" t="n">
-        <v>1.034415343417307</v>
+        <v>68.29325717390994</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.458970108598421</v>
+        <v>148.5563866440379</v>
       </c>
       <c r="B55" t="n">
-        <v>1.0810083615609312</v>
+        <v>68.23046148261817</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.521739222582811</v>
+        <v>153.96480018409608</v>
       </c>
       <c r="B56" t="n">
-        <v>1.1155383927386084</v>
+        <v>70.42934738611733</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.5393676126541025</v>
+        <v>155.3106537722646</v>
       </c>
       <c r="B57" t="n">
-        <v>1.1031004200515093</v>
+        <v>70.55073806617791</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.6067435345709136</v>
+        <v>157.09541278903328</v>
       </c>
       <c r="B58" t="n">
-        <v>1.144885094269433</v>
+        <v>70.81768968574556</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.6677635995602214</v>
+        <v>162.61468063987974</v>
       </c>
       <c r="B59" t="n">
-        <v>1.1605832558980662</v>
+        <v>74.46991109257931</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.6859144765487954</v>
+        <v>163.04551770650664</v>
       </c>
       <c r="B60" t="n">
-        <v>1.203282020275137</v>
+        <v>73.14500224784662</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.7318433397030795</v>
+        <v>164.94742255288173</v>
       </c>
       <c r="B61" t="n">
-        <v>1.1999151589444852</v>
+        <v>73.29175317166158</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.7772467065303266</v>
+        <v>168.64212152993002</v>
       </c>
       <c r="B62" t="n">
-        <v>1.2223214510153044</v>
+        <v>75.27362593331473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.835445720209545</v>
+        <v>170.57311067764826</v>
       </c>
       <c r="B63" t="n">
-        <v>1.2604554974979258</v>
+        <v>75.50707653939097</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.85601966053803</v>
+        <v>171.15213383419908</v>
       </c>
       <c r="B64" t="n">
-        <v>1.2504725996081918</v>
+        <v>74.81425174812149</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.8829857312173703</v>
+        <v>176.09332514669634</v>
       </c>
       <c r="B65" t="n">
-        <v>1.2527270417723106</v>
+        <v>78.4508700274479</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.9769407879684007</v>
+        <v>179.48121546162994</v>
       </c>
       <c r="B66" t="n">
-        <v>1.3028644077828928</v>
+        <v>80.64304849241343</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.9783664701587083</v>
+        <v>180.44475899234249</v>
       </c>
       <c r="B67" t="n">
-        <v>1.3264911161315753</v>
+        <v>80.46109598408117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.9980191791634434</v>
+        <v>183.41574555286172</v>
       </c>
       <c r="B68" t="n">
-        <v>1.2971849047258848</v>
+        <v>81.62810077909697</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.0853407574058624</v>
+        <v>186.71407847098018</v>
       </c>
       <c r="B69" t="n">
-        <v>1.3268028439555735</v>
+        <v>83.59204810025498</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.095443466267009</v>
+        <v>189.1308237349965</v>
       </c>
       <c r="B70" t="n">
-        <v>1.3676988369154188</v>
+        <v>84.20038962138085</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.1228518404789263</v>
+        <v>192.58468790625207</v>
       </c>
       <c r="B71" t="n">
-        <v>1.3350603931840914</v>
+        <v>86.52241829176653</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.223453241656982</v>
+        <v>194.22006677891014</v>
       </c>
       <c r="B72" t="n">
-        <v>1.4111202996006937</v>
+        <v>86.68492392111479</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.231871860933789</v>
+        <v>196.989407100344</v>
       </c>
       <c r="B73" t="n">
-        <v>1.394257667609235</v>
+        <v>88.16377344951667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.239147420882476</v>
+        <v>201.19011532396775</v>
       </c>
       <c r="B74" t="n">
-        <v>1.3718619804780252</v>
+        <v>88.75938535677726</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.3212573049064207</v>
+        <v>201.55656252589705</v>
       </c>
       <c r="B75" t="n">
-        <v>1.4263878061537938</v>
+        <v>90.93942772855198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.3634437033077145</v>
+        <v>203.30340034604862</v>
       </c>
       <c r="B76" t="n">
-        <v>1.437828027257879</v>
+        <v>89.66877234706232</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.385837487089664</v>
+        <v>209.48069123989896</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4376569653878684</v>
+        <v>92.40621239851505</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.45516811348002</v>
+        <v>209.599118212937</v>
       </c>
       <c r="B78" t="n">
-        <v>1.4784033999285366</v>
+        <v>94.13107992085753</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.4951228294595835</v>
+        <v>211.86018333209577</v>
       </c>
       <c r="B79" t="n">
-        <v>1.4999307793318215</v>
+        <v>92.97384379629831</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.5061233433877126</v>
+        <v>217.04606344699496</v>
       </c>
       <c r="B80" t="n">
-        <v>1.4894323843937745</v>
+        <v>95.41192147280654</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.5798303244398713</v>
+        <v>218.27165234519921</v>
       </c>
       <c r="B81" t="n">
-        <v>1.5366976534462764</v>
+        <v>98.22001057262504</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.647849205679391</v>
+        <v>221.18919838208086</v>
       </c>
       <c r="B82" t="n">
-        <v>1.5579867928813913</v>
+        <v>98.40081598631544</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.6528711383975887</v>
+        <v>226.34804535149834</v>
       </c>
       <c r="B83" t="n">
-        <v>1.5877366200530774</v>
+        <v>100.8027921571525</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.7219729975066125</v>
+        <v>226.4670428348878</v>
       </c>
       <c r="B84" t="n">
-        <v>1.6131981174810002</v>
+        <v>102.15423576386532</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.7658901434127623</v>
+        <v>229.47594743714802</v>
       </c>
       <c r="B85" t="n">
-        <v>1.636607590662352</v>
+        <v>102.24149395583473</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3.7956836766646393</v>
+        <v>233.32578017571132</v>
       </c>
       <c r="B86" t="n">
-        <v>1.637831379995259</v>
+        <v>104.63314927038402</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.8765666496025135</v>
+        <v>234.81382523940786</v>
       </c>
       <c r="B87" t="n">
-        <v>1.7001357357629696</v>
+        <v>104.64870464839336</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.91389812149413</v>
+        <v>237.75715946317962</v>
       </c>
       <c r="B88" t="n">
-        <v>1.7125760616372223</v>
+        <v>105.71817528326838</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.9169808050163533</v>
+        <v>242.37451460071804</v>
       </c>
       <c r="B89" t="n">
-        <v>1.6947071294401694</v>
+        <v>108.63838198982111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.9879753728865537</v>
+        <v>242.69424964254063</v>
       </c>
       <c r="B90" t="n">
-        <v>1.7465423347029767</v>
+        <v>107.20909449409544</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4.055712530246232</v>
+        <v>245.3450629124482</v>
       </c>
       <c r="B91" t="n">
-        <v>1.7859815337596592</v>
+        <v>108.33673367309791</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4.060234751627936</v>
+        <v>250.0287007775622</v>
       </c>
       <c r="B92" t="n">
-        <v>1.762529675033775</v>
+        <v>111.63452053906988</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.137192060095257</v>
+        <v>251.81626804208216</v>
       </c>
       <c r="B93" t="n">
-        <v>1.8176571458872326</v>
+        <v>112.00711919919468</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.178498493991808</v>
+        <v>254.24677791708228</v>
       </c>
       <c r="B94" t="n">
-        <v>1.8105065042649766</v>
+        <v>112.63646274339243</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4.190998701339195</v>
+        <v>259.19790443422534</v>
       </c>
       <c r="B95" t="n">
-        <v>1.8471253461823594</v>
+        <v>116.22665707376828</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4.285952530831039</v>
+        <v>259.474147083057</v>
       </c>
       <c r="B96" t="n">
-        <v>1.8985801587236248</v>
+        <v>115.11322478332818</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4.314984978488711</v>
+        <v>262.6795271995414</v>
       </c>
       <c r="B97" t="n">
-        <v>1.8970409982112848</v>
+        <v>116.73210217983313</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4.334881541559382</v>
+        <v>265.3215938033828</v>
       </c>
       <c r="B98" t="n">
-        <v>1.897834362184799</v>
+        <v>116.47216174051437</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4.420239116983558</v>
+        <v>267.6800409324659</v>
       </c>
       <c r="B99" t="n">
-        <v>1.9531290395684358</v>
+        <v>120.20142082060946</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4.468890082443123</v>
+        <v>271.2482794955644</v>
       </c>
       <c r="B100" t="n">
-        <v>1.970347041862024</v>
+        <v>121.07554850868334</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4.476061911551963</v>
+        <v>273.4518879344331</v>
       </c>
       <c r="B101" t="n">
-        <v>1.9574046557055378</v>
+        <v>122.02306600642555</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4.559350019556374</v>
+        <v>275.9777317982505</v>
       </c>
       <c r="B102" t="n">
-        <v>2.018157223858343</v>
+        <v>123.31844950675509</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.566637467353282</v>
+        <v>280.1287581804465</v>
       </c>
       <c r="B103" t="n">
-        <v>1.9992124717190558</v>
+        <v>125.99213710405297</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.570266823140614</v>
+        <v>280.72971563553597</v>
       </c>
       <c r="B104" t="n">
-        <v>1.9818751275866204</v>
+        <v>125.37505099741449</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4.66942690535718</v>
+        <v>284.070766520131</v>
       </c>
       <c r="B105" t="n">
-        <v>2.0364297777375486</v>
+        <v>127.52205428047708</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4.683041166543372</v>
+        <v>286.8132815774889</v>
       </c>
       <c r="B106" t="n">
-        <v>2.0293714867996613</v>
+        <v>128.7711005767932</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.695810800486413</v>
+        <v>289.04933891464145</v>
       </c>
       <c r="B107" t="n">
-        <v>2.085504446497359</v>
+        <v>129.44930940369292</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.795628788293031</v>
+        <v>292.4384166727312</v>
       </c>
       <c r="B108" t="n">
-        <v>2.1189674905735356</v>
+        <v>131.39721553824089</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.824285646151119</v>
+        <v>294.74016962038723</v>
       </c>
       <c r="B109" t="n">
-        <v>2.105889251295453</v>
+        <v>130.79780192706644</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4.830036905613283</v>
+        <v>295.59854063555264</v>
       </c>
       <c r="B110" t="n">
-        <v>2.1326042241635355</v>
+        <v>132.8594620028826</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4.9268957209437705</v>
+        <v>300.7965553000144</v>
       </c>
       <c r="B111" t="n">
-        <v>2.1496766705690926</v>
+        <v>135.59733444694126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.946312754940754</v>
+        <v>302.77475232852856</v>
       </c>
       <c r="B112" t="n">
-        <v>2.2070310148555974</v>
+        <v>135.86810229344727</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4.9743897771232986</v>
+        <v>304.3166616626825</v>
       </c>
       <c r="B113" t="n">
-        <v>2.21628985427536</v>
+        <v>135.894495770561</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.051852588660658</v>
+        <v>308.24678077375034</v>
       </c>
       <c r="B114" t="n">
-        <v>2.2160032902943123</v>
+        <v>138.21366619472002</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.06396169906441</v>
+        <v>309.8599018889678</v>
       </c>
       <c r="B115" t="n">
-        <v>2.257293551205131</v>
+        <v>138.01142976707206</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.090880768151427</v>
+        <v>311.21701856883124</v>
       </c>
       <c r="B116" t="n">
-        <v>2.2299623738305754</v>
+        <v>137.78553283703917</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5.202462661936775</v>
+        <v>316.2843756333299</v>
       </c>
       <c r="B117" t="n">
-        <v>2.3165092353029153</v>
+        <v>141.15686965928145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.216887076621069</v>
+        <v>317.17483777167007</v>
       </c>
       <c r="B118" t="n">
-        <v>2.305134808007268</v>
+        <v>140.88763668537393</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.2239824383801325</v>
+        <v>319.83404874786856</v>
       </c>
       <c r="B119" t="n">
-        <v>2.2923306940903685</v>
+        <v>141.66086987161387</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5.33071263532811</v>
+        <v>323.9653837643383</v>
       </c>
       <c r="B120" t="n">
-        <v>2.3454866236035827</v>
+        <v>142.6646655015261</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5.344170302141677</v>
+        <v>325.18055939813564</v>
       </c>
       <c r="B121" t="n">
-        <v>2.3887901044340483</v>
+        <v>145.36406115463947</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.353892140168931</v>
+        <v>327.60534553232435</v>
       </c>
       <c r="B122" t="n">
-        <v>2.342225183715026</v>
+        <v>144.4559564796562</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5.470630128804537</v>
+        <v>329.6176784596573</v>
       </c>
       <c r="B123" t="n">
-        <v>2.3851265686004726</v>
+        <v>145.3455487938793</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.471538244215903</v>
+        <v>333.08134313932015</v>
       </c>
       <c r="B124" t="n">
-        <v>2.406961910238915</v>
+        <v>147.30536082732883</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5.475519502651258</v>
+        <v>335.3638754365095</v>
       </c>
       <c r="B125" t="n">
-        <v>2.437949902977827</v>
+        <v>148.27301361841452</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5.587604652996721</v>
+        <v>335.7850447398912</v>
       </c>
       <c r="B126" t="n">
-        <v>2.472471333502126</v>
+        <v>147.58774286460218</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5.590568953585146</v>
+        <v>340.58971155288657</v>
       </c>
       <c r="B127" t="n">
-        <v>2.445555034558991</v>
+        <v>150.98918013785652</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5.611417981718813</v>
+        <v>343.61875184587865</v>
       </c>
       <c r="B128" t="n">
-        <v>2.4460797103229743</v>
+        <v>152.67580819055019</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5.703410920873257</v>
+        <v>344.9590975692282</v>
       </c>
       <c r="B129" t="n">
-        <v>2.4925491566084186</v>
+        <v>152.21531282141837</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5.716634923103264</v>
+        <v>348.6951259122885</v>
       </c>
       <c r="B130" t="n">
-        <v>2.4769523209520683</v>
+        <v>154.35591216420275</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5.724452610372377</v>
+        <v>350.9589620149663</v>
       </c>
       <c r="B131" t="n">
-        <v>2.5366971489128787</v>
+        <v>155.48405160762564</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.822098286662844</v>
+        <v>352.6560203514291</v>
       </c>
       <c r="B132" t="n">
-        <v>2.5509909804753508</v>
+        <v>155.51221763005813</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.831620576321644</v>
+        <v>357.7013737706193</v>
       </c>
       <c r="B133" t="n">
-        <v>2.5292619295543153</v>
+        <v>159.182360949081</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.857962146955967</v>
+        <v>358.4768840172543</v>
       </c>
       <c r="B134" t="n">
-        <v>2.5287052271226735</v>
+        <v>158.34599305218134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5.960361190257853</v>
+        <v>359.7878016614893</v>
       </c>
       <c r="B135" t="n">
-        <v>2.580732222598856</v>
+        <v>158.29774732203606</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5.970360926127169</v>
+        <v>365.59770299691274</v>
       </c>
       <c r="B136" t="n">
-        <v>2.618859690766276</v>
+        <v>162.5023965056299</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5.974396782105164</v>
+        <v>367.4777533671843</v>
       </c>
       <c r="B137" t="n">
-        <v>2.5661444316434436</v>
+        <v>162.92376867026698</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.095210792388548</v>
+        <v>367.7896904775902</v>
       </c>
       <c r="B138" t="n">
-        <v>2.6303612741377624</v>
+        <v>161.731948870221</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.110786161105338</v>
+        <v>374.0346631021704</v>
       </c>
       <c r="B139" t="n">
-        <v>2.6201361413939344</v>
+        <v>163.3554731756569</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.122853661749146</v>
+        <v>374.1822949398452</v>
       </c>
       <c r="B140" t="n">
-        <v>2.687099068202616</v>
+        <v>166.9378808939716</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.2195545580933524</v>
+        <v>375.4642011097343</v>
       </c>
       <c r="B141" t="n">
-        <v>2.6823428126552704</v>
+        <v>166.33294170201728</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.236882573421804</v>
+        <v>382.34951708388945</v>
       </c>
       <c r="B142" t="n">
-        <v>2.7186461768887304</v>
+        <v>170.50035960073254</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>6.260532806594854</v>
+        <v>382.66604433830526</v>
       </c>
       <c r="B143" t="n">
-        <v>2.6930171161038023</v>
+        <v>169.0261380141344</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6.336756382358047</v>
+        <v>383.3481280568373</v>
       </c>
       <c r="B144" t="n">
-        <v>2.749001433601179</v>
+        <v>168.23722678908274</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6.380351329141582</v>
+        <v>389.89682129709445</v>
       </c>
       <c r="B145" t="n">
-        <v>2.7733775990576355</v>
+        <v>173.5894763882967</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>6.392207059378451</v>
+        <v>390.56534716652317</v>
       </c>
       <c r="B146" t="n">
-        <v>2.7586916547309173</v>
+        <v>171.4358979167167</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6.495872650753003</v>
+        <v>390.5957652265119</v>
       </c>
       <c r="B147" t="n">
-        <v>2.8377080918021838</v>
+        <v>173.020474569877</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6.53236212469187</v>
+        <v>398.6024730377489</v>
       </c>
       <c r="B148" t="n">
-        <v>2.845430934787206</v>
+        <v>175.2963668665512</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6.549129744969861</v>
+        <v>399.89244740134984</v>
       </c>
       <c r="B149" t="n">
-        <v>2.835012469278728</v>
+        <v>179.55172471370352</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>6.641160334541909</v>
+        <v>400.4285339073117</v>
       </c>
       <c r="B150" t="n">
-        <v>2.9033504079067596</v>
+        <v>178.25188697211294</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6.664146046885587</v>
+        <v>405.2864152067014</v>
       </c>
       <c r="B151" t="n">
-        <v>2.9078136036929116</v>
+        <v>180.52089526778238</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>6.692776920388657</v>
+        <v>408.3289590333371</v>
       </c>
       <c r="B152" t="n">
-        <v>2.917893205592203</v>
+        <v>181.7698463843243</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>6.773338124420737</v>
+        <v>409.3754987416289</v>
       </c>
       <c r="B153" t="n">
-        <v>2.9717732921290203</v>
+        <v>181.04931778750603</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6.7894327042555895</v>
+        <v>412.3470805515918</v>
       </c>
       <c r="B154" t="n">
-        <v>2.9584681379902373</v>
+        <v>182.6758681936493</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6.792805545534918</v>
+        <v>414.4839627450579</v>
       </c>
       <c r="B155" t="n">
-        <v>2.932849027262269</v>
+        <v>183.08350011393398</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6.911552981251227</v>
+        <v>417.3270829673133</v>
       </c>
       <c r="B156" t="n">
-        <v>2.9625921473529138</v>
+        <v>184.80454737011476</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.916854037369091</v>
+        <v>418.8242519078846</v>
       </c>
       <c r="B157" t="n">
-        <v>3.028998337130052</v>
+        <v>184.68289860509344</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>6.9470211600908875</v>
+        <v>422.99317235674147</v>
       </c>
       <c r="B158" t="n">
-        <v>3.0289928930984904</v>
+        <v>187.40542551502418</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>7.046026564449975</v>
+        <v>426.1106084106084</v>
       </c>
       <c r="B159" t="n">
-        <v>3.075285680976455</v>
+        <v>187.0338847501431</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>7.074570818336533</v>
+        <v>426.6872323630843</v>
       </c>
       <c r="B160" t="n">
-        <v>3.0737470424368567</v>
+        <v>189.22440508657692</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>7.086092069538684</v>
+        <v>430.6650609468592</v>
       </c>
       <c r="B161" t="n">
-        <v>3.066131487760919</v>
+        <v>190.25367835473796</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7.185617452460115</v>
+        <v>433.0672694471095</v>
       </c>
       <c r="B162" t="n">
-        <v>3.1253016799174063</v>
+        <v>189.5357102937008</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7.189029655762122</v>
+        <v>433.46956234568665</v>
       </c>
       <c r="B163" t="n">
-        <v>3.1502011345480057</v>
+        <v>191.579062683002</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>7.219991583798078</v>
+        <v>439.65600275668857</v>
       </c>
       <c r="B164" t="n">
-        <v>3.1404294032793576</v>
+        <v>194.50871688304747</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>7.325885326446736</v>
+        <v>440.6060065894911</v>
       </c>
       <c r="B165" t="n">
-        <v>3.2209641841981025</v>
+        <v>193.80858613076137</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>7.332366332648049</v>
+        <v>442.9358946376386</v>
       </c>
       <c r="B166" t="n">
-        <v>3.200676936017733</v>
+        <v>194.71843180669256</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7.353790966199349</v>
+        <v>447.13211040877195</v>
       </c>
       <c r="B167" t="n">
-        <v>3.2020550252531246</v>
+        <v>196.22040922284756</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7.46705367604685</v>
+        <v>447.64590059618064</v>
       </c>
       <c r="B168" t="n">
-        <v>3.289738997985048</v>
+        <v>198.28222949789333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>7.472819963750953</v>
+        <v>452.3534096896222</v>
       </c>
       <c r="B169" t="n">
-        <v>3.264938809759899</v>
+        <v>199.72677751734145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7.487317632534327</v>
+        <v>454.83197635582064</v>
       </c>
       <c r="B170" t="n">
-        <v>3.2557475670521807</v>
+        <v>200.7680216763037</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>7.568722658341186</v>
+        <v>455.36844898258454</v>
       </c>
       <c r="B171" t="n">
-        <v>3.2846018769334124</v>
+        <v>199.6706695106537</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>7.612515831699885</v>
+        <v>459.0443602327323</v>
       </c>
       <c r="B172" t="n">
-        <v>3.3588556848420827</v>
+        <v>202.23736559514845</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>7.6419834076425825</v>
+        <v>461.80827017469306</v>
       </c>
       <c r="B173" t="n">
-        <v>3.3313682260923905</v>
+        <v>203.7024795357258</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>7.7140600605970135</v>
+        <v>463.9505965747418</v>
       </c>
       <c r="B174" t="n">
-        <v>3.352690208338667</v>
+        <v>204.4412401721646</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>7.718609334425539</v>
+        <v>467.64707655890703</v>
       </c>
       <c r="B175" t="n">
-        <v>3.3857030836203137</v>
+        <v>206.87630985302553</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>7.768347933292349</v>
+        <v>470.0273459013206</v>
       </c>
       <c r="B176" t="n">
-        <v>3.380896763893613</v>
+        <v>207.5486648336439</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>7.8444279080742465</v>
+        <v>471.13173928559036</v>
       </c>
       <c r="B177" t="n">
-        <v>3.414164415728327</v>
+        <v>207.1299452960933</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>7.871851255335643</v>
+        <v>474.260865848711</v>
       </c>
       <c r="B178" t="n">
-        <v>3.4627288694161154</v>
+        <v>208.59384933783258</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>7.888766461156898</v>
+        <v>478.9824770238803</v>
       </c>
       <c r="B179" t="n">
-        <v>3.4340345572113717</v>
+        <v>212.11218494431944</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>7.985413481286001</v>
+        <v>479.90839841589485</v>
       </c>
       <c r="B180" t="n">
-        <v>3.5049374898238987</v>
+        <v>211.37529034977092</v>
       </c>
     </row>
   </sheetData>
